--- a/Regression/Data/TaubmanPreprodTestData.xlsx
+++ b/Regression/Data/TaubmanPreprodTestData.xlsx
@@ -5,12 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="SignUp" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="LoginLogout" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Modify" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -22,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="51">
   <si>
     <t xml:space="preserve">Field</t>
   </si>
@@ -45,7 +44,7 @@
     <t xml:space="preserve">SignUp_Email</t>
   </si>
   <si>
-    <t xml:space="preserve">testcasesignup6@mailinator.com</t>
+    <t xml:space="preserve">testcasesignup11@mailinator.com</t>
   </si>
   <si>
     <t xml:space="preserve">SignUp_Password</t>
@@ -90,7 +89,7 @@
     <t xml:space="preserve">LicensePlate</t>
   </si>
   <si>
-    <t xml:space="preserve">SignUp6</t>
+    <t xml:space="preserve">SignUp11</t>
   </si>
   <si>
     <t xml:space="preserve">ConfirmLicensePlate</t>
@@ -117,28 +116,64 @@
     <t xml:space="preserve">ExpiryMonth</t>
   </si>
   <si>
+    <t xml:space="preserve">10</t>
+  </si>
+  <si>
     <t xml:space="preserve">ExpiryYear</t>
   </si>
   <si>
+    <t xml:space="preserve">20</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cvv</t>
   </si>
   <si>
-    <t xml:space="preserve">Username</t>
+    <t xml:space="preserve">212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">testcasetaubmanfooter@mailinator.com</t>
   </si>
   <si>
     <t xml:space="preserve">Password</t>
   </si>
   <si>
+    <t xml:space="preserve">FirstName</t>
+  </si>
+  <si>
     <t xml:space="preserve">Testing</t>
   </si>
   <si>
-    <t xml:space="preserve">Testing1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">testcasetaubmanfooter@mailinator.com</t>
+    <t xml:space="preserve">LastName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26 Fergusson Street New</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPRING GROVE New</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New South Wales New</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modify1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Black</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123</t>
   </si>
 </sst>
 </file>
@@ -186,7 +221,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -197,12 +232,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFCCCCCC"/>
         <bgColor rgb="FFCCCCFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -247,7 +276,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -256,7 +285,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -264,7 +293,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -276,15 +305,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -367,8 +388,8 @@
   </sheetPr>
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -510,24 +531,24 @@
       <c r="A17" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="5" t="n">
-        <v>10</v>
+      <c r="B17" s="5" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" s="5" t="n">
-        <v>20</v>
+        <v>32</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" s="5" t="n">
-        <v>212</v>
+        <v>34</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -550,10 +571,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D21" activeCellId="0" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -564,41 +585,137 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>34</v>
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>3</v>
+        <v>36</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>9</v>
+      <c r="A4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A4" r:id="rId1" display="testcasetaubmanfooter@mailinator.com"/>
-    <hyperlink ref="B4" r:id="rId2" display="Cdn@1234"/>
+    <hyperlink ref="B2" r:id="rId1" display="testcasetaubmanfooter@mailinator.com"/>
+    <hyperlink ref="B3" r:id="rId2" display="Cdn@1234"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
@@ -608,33 +725,4 @@
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="11.52"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;A</oddHeader>
-    <oddFooter>&amp;CPage &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
 </file>
--- a/Regression/Data/TaubmanPreprodTestData.xlsx
+++ b/Regression/Data/TaubmanPreprodTestData.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="52">
   <si>
     <t xml:space="preserve">Field</t>
   </si>
@@ -138,6 +138,9 @@
   </si>
   <si>
     <t xml:space="preserve">Password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cdn@123</t>
   </si>
   <si>
     <t xml:space="preserve">FirstName</t>
@@ -574,7 +577,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D21" activeCellId="0" sqref="D21"/>
+      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -605,20 +608,20 @@
         <v>38</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>29</v>
@@ -629,7 +632,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -637,7 +640,7 @@
         <v>13</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -645,7 +648,7 @@
         <v>15</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -653,7 +656,7 @@
         <v>21</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -661,7 +664,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -669,7 +672,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -685,7 +688,7 @@
         <v>28</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -693,7 +696,7 @@
         <v>30</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -701,7 +704,7 @@
         <v>32</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -709,13 +712,13 @@
         <v>34</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="testcasetaubmanfooter@mailinator.com"/>
-    <hyperlink ref="B3" r:id="rId2" display="Cdn@1234"/>
+    <hyperlink ref="B3" r:id="rId2" display="Cdn@123"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>

--- a/Regression/Data/TaubmanPreprodTestData.xlsx
+++ b/Regression/Data/TaubmanPreprodTestData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="SignUp" sheetId="1" state="visible" r:id="rId2"/>
@@ -44,7 +44,7 @@
     <t xml:space="preserve">SignUp_Email</t>
   </si>
   <si>
-    <t xml:space="preserve">testcasesignup11@mailinator.com</t>
+    <t xml:space="preserve">testcasesignup12@mailinator.com</t>
   </si>
   <si>
     <t xml:space="preserve">SignUp_Password</t>
@@ -89,7 +89,7 @@
     <t xml:space="preserve">LicensePlate</t>
   </si>
   <si>
-    <t xml:space="preserve">SignUp11</t>
+    <t xml:space="preserve">SignUp12</t>
   </si>
   <si>
     <t xml:space="preserve">ConfirmLicensePlate</t>
@@ -391,8 +391,8 @@
   </sheetPr>
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -576,7 +576,7 @@
   </sheetPr>
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
     </sheetView>
   </sheetViews>
